--- a/OROS.xlsx
+++ b/OROS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\PASCUAL\WEB_PASCUAL\WEB_PASCUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\WEB\WEB_PASCUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C312D47-12D9-43C6-898B-C4100173842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8394F73-8198-4D8C-B83A-0BCE4CA0CB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,6 @@
     <sheet name="OROS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2033,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D610855-226B-4771-883A-5EFDDAE916F4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,6 +2154,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OROS.xlsx
+++ b/OROS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\WEB\WEB_PASCUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf24e59b0a992481/Documentos/PASCUAL/WEB_PASCUAL/WEB_PASCUAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8394F73-8198-4D8C-B83A-0BCE4CA0CB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E8394F73-8198-4D8C-B83A-0BCE4CA0CB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{315EE727-D57D-4BAE-9EBB-26832F98B8A1}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="2" r:id="rId1"/>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC688F0-4185-43C1-B534-105F6D75BE08}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D610855-226B-4771-883A-5EFDDAE916F4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>99</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
